--- a/graph_generation/results/hermes_llama2/level_1/k_1.xlsx
+++ b/graph_generation/results/hermes_llama2/level_1/k_1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="42">
   <si>
     <t>prompt</t>
   </si>
@@ -159,28 +159,28 @@
  R 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0
 Solution: M -&gt; K -&gt; P -&gt; B -&gt; H -&gt; A -&gt; C -&gt; G -&gt; N -&gt; O -&gt; I -&gt; L -&gt; F -&gt; E -&gt; Q -&gt; R -&gt; J -&gt; D
  Given these examples, answer the following quesiton.
-What is the shortest path from node I to node T? Return the sequence of nodes in response.
+What is the shortest path from node H to node C? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T
- A 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1
- D 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- E 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- H 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0
- K 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- L 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
- N 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0
+ A 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0
+ B 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ C 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ D 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1
+ G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0
+ H 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ J 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1
+ M 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0
+ N 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
  O 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0
- T 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ P 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
+ R 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0
+ S 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ T 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
@@ -208,28 +208,28 @@
  R 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0
 Solution: M -&gt; K -&gt; P -&gt; B -&gt; H -&gt; A -&gt; C -&gt; G -&gt; N -&gt; O -&gt; I -&gt; L -&gt; F -&gt; E -&gt; Q -&gt; R -&gt; J -&gt; D
  Given these examples, answer the following quesiton.
-What is the shortest path from node F to node K? Return the sequence of nodes in response.
+What is the shortest path from node K to node Q? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T
- A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
- B 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1
- D 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0
- E 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- F 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
- J 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- L 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- N 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- O 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0
- Q 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0
- S 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0
- T 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ A 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1
+ F 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ G 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0
+ J 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0
+ P 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0
+ T 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
@@ -257,28 +257,28 @@
  R 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0
 Solution: M -&gt; K -&gt; P -&gt; B -&gt; H -&gt; A -&gt; C -&gt; G -&gt; N -&gt; O -&gt; I -&gt; L -&gt; F -&gt; E -&gt; Q -&gt; R -&gt; J -&gt; D
  Given these examples, answer the following quesiton.
-What is the shortest path from node L to node H? Return the sequence of nodes in response.
+What is the shortest path from node C to node I? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T
- A 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0
- C 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- F 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- G 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- I 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- J 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- M 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0
- P 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1
- S 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- T 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ A 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0
+ C 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0
+ E 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0
+ F 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
+ H 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ I 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ K 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1
+ O 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ P 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ Q 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ R 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0
     </t>
   </si>
   <si>
@@ -306,28 +306,28 @@
  R 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0
 Solution: M -&gt; K -&gt; P -&gt; B -&gt; H -&gt; A -&gt; C -&gt; G -&gt; N -&gt; O -&gt; I -&gt; L -&gt; F -&gt; E -&gt; Q -&gt; R -&gt; J -&gt; D
  Given these examples, answer the following quesiton.
-What is the shortest path from node P to node O? Return the sequence of nodes in response.
+What is the shortest path from node S to node M? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T
- A 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0
- C 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- D 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0
- F 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0
- G 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1
- I 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
- K 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ A 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0
+ B 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1
+ E 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ F 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ G 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ H 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ I 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ J 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0
+ K 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0
  L 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- M 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- O 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0
- R 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0
- S 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ N 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
+ Q 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ S 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ T 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
     </t>
   </si>
   <si>
@@ -355,28 +355,28 @@
  R 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0
 Solution: M -&gt; K -&gt; P -&gt; B -&gt; H -&gt; A -&gt; C -&gt; G -&gt; N -&gt; O -&gt; I -&gt; L -&gt; F -&gt; E -&gt; Q -&gt; R -&gt; J -&gt; D
  Given these examples, answer the following quesiton.
-What is the shortest path from node L to node K? Return the sequence of nodes in response.
+What is the shortest path from node T to node F? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T
- A 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0
- D 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0
- F 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0
- H 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- I 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1
- J 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- M 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- N 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1
- Q 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- R 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0
+ A 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0
+ B 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ C 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ D 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0
+ F 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0
+ M 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ O 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0
+ Q 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ R 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0
+ S 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
     </t>
   </si>
   <si>
@@ -404,28 +404,28 @@
  R 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0
 Solution: M -&gt; K -&gt; P -&gt; B -&gt; H -&gt; A -&gt; C -&gt; G -&gt; N -&gt; O -&gt; I -&gt; L -&gt; F -&gt; E -&gt; Q -&gt; R -&gt; J -&gt; D
  Given these examples, answer the following quesiton.
-What is the shortest path from node Q to node L? Return the sequence of nodes in response.
+What is the shortest path from node M to node L? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T
- A 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0
- C 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0
- D 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- E 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- F 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1
- G 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0
- I 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- M 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- N 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- O 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0
- Q 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0
- S 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0
- T 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1
+ B 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
+ D 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0
+ E 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0
+ G 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0
+ H 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ I 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ J 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
+ L 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0
+ Q 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ R 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ S 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ T 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
@@ -453,28 +453,28 @@
  R 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0
 Solution: M -&gt; K -&gt; P -&gt; B -&gt; H -&gt; A -&gt; C -&gt; G -&gt; N -&gt; O -&gt; I -&gt; L -&gt; F -&gt; E -&gt; Q -&gt; R -&gt; J -&gt; D
  Given these examples, answer the following quesiton.
-What is the shortest path from node H to node O? Return the sequence of nodes in response.
+What is the shortest path from node F to node Q? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T
- A 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0
- C 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- D 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0
- E 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0
- H 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
- L 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
- O 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1
- R 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0
- T 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ A 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0
+ B 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0
+ C 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1
+ D 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0
+ E 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1
+ H 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ I 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ J 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ K 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0
+ O 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ Q 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ R 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0
+ T 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
@@ -502,28 +502,28 @@
  R 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0
 Solution: M -&gt; K -&gt; P -&gt; B -&gt; H -&gt; A -&gt; C -&gt; G -&gt; N -&gt; O -&gt; I -&gt; L -&gt; F -&gt; E -&gt; Q -&gt; R -&gt; J -&gt; D
  Given these examples, answer the following quesiton.
-What is the shortest path from node F to node D? Return the sequence of nodes in response.
+What is the shortest path from node D to node H? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T
- A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
- B 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- E 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- G 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0
- I 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- J 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1
- K 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0
- M 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0
- N 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0
- O 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- P 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- Q 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0
- S 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- T 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ B 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0
+ D 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ E 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
+ G 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ I 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ K 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0
+ L 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
+ O 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1
+ Q 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0
+ R 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0
     </t>
   </si>
   <si>
@@ -551,28 +551,28 @@
  R 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0
 Solution: M -&gt; K -&gt; P -&gt; B -&gt; H -&gt; A -&gt; C -&gt; G -&gt; N -&gt; O -&gt; I -&gt; L -&gt; F -&gt; E -&gt; Q -&gt; R -&gt; J -&gt; D
  Given these examples, answer the following quesiton.
-What is the shortest path from node O to node I? Return the sequence of nodes in response.
+What is the shortest path from node K to node O? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T
- A 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0
- C 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- E 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0
- G 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1
- I 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- J 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0
- K 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- N 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- O 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
- R 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- S 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1
- T 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0
+ A 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ D 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0
+ E 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ F 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ G 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0
+ H 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0
+ M 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ P 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
+ R 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0
+ S 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ T 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
@@ -600,89 +600,91 @@
  R 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0
 Solution: M -&gt; K -&gt; P -&gt; B -&gt; H -&gt; A -&gt; C -&gt; G -&gt; N -&gt; O -&gt; I -&gt; L -&gt; F -&gt; E -&gt; Q -&gt; R -&gt; J -&gt; D
  Given these examples, answer the following quesiton.
-What is the shortest path from node T to node A? Return the sequence of nodes in response.
+What is the shortest path from node J to node R? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T
- A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- B 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0
- D 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- E 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- F 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0
- L 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0
- M 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- N 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- O 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0
- P 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- Q 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ A 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ B 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ C 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ E 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0
+ F 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0
+ L 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ P 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0
+ Q 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ S 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ T 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
     </t>
   </si>
   <si>
-    <t>I -&gt; O -&gt; G -&gt; E -&gt; A -&gt; D -&gt; L -&gt; R -&gt; P -&gt; Q -&gt; M -&gt; S -&gt; J -&gt; N -&gt; K -&gt; F -&gt; B -&gt; H -&gt; C -&gt; T</t>
-  </si>
-  <si>
-    <t>F -&gt; E -&gt; Q -&gt; A -&gt; O -&gt; C -&gt; T -&gt; I -&gt; R -&gt; S -&gt; H -&gt; P -&gt; N -&gt; B -&gt; L -&gt; G -&gt; D -&gt; M -&gt; J -&gt; K</t>
-  </si>
-  <si>
-    <t>L -&gt; O -&gt; Q -&gt; N -&gt; R -&gt; T -&gt; F -&gt; C -&gt; K -&gt; E -&gt; D -&gt; G -&gt; S -&gt; B -&gt; I -&gt; J -&gt; A -&gt; M -&gt; P -&gt; H</t>
-  </si>
-  <si>
-    <t>P -&gt; C -&gt; D -&gt; M -&gt; J -&gt; R -&gt; Q -&gt; L -&gt; A -&gt; I -&gt; B -&gt; K -&gt; E -&gt; N -&gt; T -&gt; H -&gt; S -&gt; F -&gt; G -&gt; O</t>
-  </si>
-  <si>
-    <t>L -&gt; S -&gt; J -&gt; C -&gt; Q -&gt; H -&gt; A -&gt; B -&gt; N -&gt; G -&gt; I -&gt; T -&gt; P -&gt; M -&gt; D -&gt; F -&gt; O -&gt; E -&gt; R -&gt; K</t>
-  </si>
-  <si>
-    <t>Q -&gt; B -&gt; J -&gt; M -&gt; A -&gt; G -&gt; C -&gt; N -&gt; P -&gt; H -&gt; I -&gt; F -&gt; T -&gt; E -&gt; D -&gt; O -&gt; K -&gt; S -&gt; R -&gt; L</t>
-  </si>
-  <si>
-    <t>H -&gt; B -&gt; I -&gt; E -&gt; F -&gt; M -&gt; J -&gt; A -&gt; C -&gt; T -&gt; Q -&gt; N -&gt; S -&gt; R -&gt; K -&gt; P -&gt; D -&gt; L -&gt; G -&gt; O</t>
-  </si>
-  <si>
-    <t>F -&gt; S -&gt; H -&gt; M -&gt; R -&gt; I -&gt; B -&gt; E -&gt; P -&gt; G -&gt; C -&gt; K -&gt; L -&gt; Q -&gt; A -&gt; O -&gt; N -&gt; J -&gt; T -&gt; D</t>
-  </si>
-  <si>
-    <t>O -&gt; B -&gt; R -&gt; Q -&gt; M -&gt; A -&gt; L -&gt; F -&gt; K -&gt; E -&gt; G -&gt; J -&gt; S -&gt; T -&gt; H -&gt; P -&gt; D -&gt; C -&gt; N -&gt; I</t>
-  </si>
-  <si>
-    <t>T -&gt; M -&gt; D -&gt; B -&gt; J -&gt; C -&gt; P -&gt; S -&gt; K -&gt; L -&gt; H -&gt; I -&gt; G -&gt; O -&gt; R -&gt; N -&gt; F -&gt; E -&gt; Q -&gt; A</t>
-  </si>
-  <si>
-    <t>The shortest path from node I to node T is I -&gt; L -&gt; F -&gt; E -&gt; Q -&gt; R -&gt; J -&gt; D -&gt; T.</t>
-  </si>
-  <si>
-    <t>The shortest path from node F to node K is F -&gt; I -&gt; L -&gt; N -&gt; O -&gt; P -&gt; B -&gt; H -&gt; A -&gt; C -&gt; G -&gt; N -&gt; O -&gt; I -&gt; L -&gt; F -&gt; E -&gt; Q -&gt; R -&gt; J -&gt; D -&gt; K.</t>
-  </si>
-  <si>
-    <t>The shortest path from node L to node H is L -&gt; I -&gt; A -&gt; C -&gt; G -&gt; N -&gt; O -&gt; I -&gt; L -&gt; F -&gt; E -&gt; Q -&gt; R -&gt; J -&gt; D -&gt; H.</t>
-  </si>
-  <si>
-    <t>The shortest path from node P to node O is P -&gt; N -&gt; O.</t>
-  </si>
-  <si>
-    <t>The shortest path from node L to node K is L -&gt; I -&gt; H -&gt; A -&gt; C -&gt; G -&gt; N -&gt; O -&gt; I -&gt; L -&gt; F -&gt; E -&gt; Q -&gt; R -&gt; J -&gt; D -&gt; K.</t>
-  </si>
-  <si>
-    <t>The shortest path from node Q to node L is Q -&gt; S -&gt; T -&gt; L.</t>
-  </si>
-  <si>
-    <t>The shortest path from node H to node O is H -&gt; K -&gt; P -&gt; B -&gt; H -&gt; A -&gt; C -&gt; G -&gt; N -&gt; O -&gt; I -&gt; L -&gt; F -&gt; Q -&gt; R -&gt; J -&gt; D.</t>
-  </si>
-  <si>
-    <t>The shortest path from node F to node D is F -&gt; K -&gt; P -&gt; B -&gt; H -&gt; A -&gt; C -&gt; G -&gt; N -&gt; O -&gt; I -&gt; L -&gt; F -&gt; E -&gt; Q -&gt; R -&gt; J -&gt; D.</t>
-  </si>
-  <si>
-    <t>The shortest path from node O to node I is O -&gt; P -&gt; B -&gt; H -&gt; A -&gt; C -&gt; G -&gt; N -&gt; O -&gt; I -&gt; L -&gt; F -&gt; E -&gt; Q -&gt; R -&gt; J -&gt; D.</t>
-  </si>
-  <si>
-    <t>The shortest path from node T to node A is T -&gt; S -&gt; R -&gt; D -&gt; H -&gt; A -&gt; C -&gt; G -&gt; N -&gt; O -&gt; I -&gt; L -&gt; F -&gt; E -&gt; Q -&gt; R -&gt; J -&gt; D.</t>
+    <t>H -&gt; A -&gt; S -&gt; F -&gt; T -&gt; L -&gt; M -&gt; K -&gt; N -&gt; E -&gt; J -&gt; D -&gt; B -&gt; P -&gt; Q -&gt; R -&gt; G -&gt; O -&gt; I -&gt; C</t>
+  </si>
+  <si>
+    <t>K -&gt; H -&gt; A -&gt; G -&gt; C -&gt; F -&gt; T -&gt; E -&gt; J -&gt; B -&gt; D -&gt; P -&gt; R -&gt; S -&gt; O -&gt; M -&gt; I -&gt; L -&gt; N -&gt; Q</t>
+  </si>
+  <si>
+    <t>C -&gt; J -&gt; P -&gt; A -&gt; F -&gt; L -&gt; K -&gt; H -&gt; E -&gt; R -&gt; B -&gt; Q -&gt; G -&gt; S -&gt; T -&gt; N -&gt; M -&gt; O -&gt; D -&gt; I</t>
+  </si>
+  <si>
+    <t>S -&gt; E -&gt; F -&gt; R -&gt; P -&gt; T -&gt; D -&gt; G -&gt; J -&gt; Q -&gt; L -&gt; A -&gt; N -&gt; O -&gt; I -&gt; B -&gt; C -&gt; H -&gt; K -&gt; M</t>
+  </si>
+  <si>
+    <t>T -&gt; Q -&gt; A -&gt; N -&gt; R -&gt; L -&gt; O -&gt; H -&gt; I -&gt; J -&gt; P -&gt; K -&gt; S -&gt; E -&gt; G -&gt; D -&gt; C -&gt; M -&gt; B -&gt; F</t>
+  </si>
+  <si>
+    <t>M -&gt; C -&gt; R -&gt; K -&gt; T -&gt; A -&gt; O -&gt; P -&gt; J -&gt; G -&gt; N -&gt; F -&gt; S -&gt; I -&gt; D -&gt; Q -&gt; H -&gt; B -&gt; E -&gt; L</t>
+  </si>
+  <si>
+    <t>F -&gt; O -&gt; H -&gt; B -&gt; R -&gt; D -&gt; L -&gt; M -&gt; N -&gt; I -&gt; E -&gt; P -&gt; S -&gt; G -&gt; T -&gt; C -&gt; K -&gt; J -&gt; A -&gt; Q</t>
+  </si>
+  <si>
+    <t>D -&gt; I -&gt; K -&gt; O -&gt; A -&gt; B -&gt; E -&gt; L -&gt; P -&gt; T -&gt; M -&gt; R -&gt; C -&gt; G -&gt; F -&gt; J -&gt; S -&gt; N -&gt; Q -&gt; H</t>
+  </si>
+  <si>
+    <t>K -&gt; L -&gt; G -&gt; S -&gt; E -&gt; B -&gt; C -&gt; P -&gt; Q -&gt; R -&gt; I -&gt; T -&gt; F -&gt; A -&gt; H -&gt; D -&gt; M -&gt; N -&gt; J -&gt; O</t>
+  </si>
+  <si>
+    <t>J -&gt; P -&gt; Q -&gt; G -&gt; C -&gt; B -&gt; T -&gt; O -&gt; E -&gt; M -&gt; H -&gt; N -&gt; I -&gt; S -&gt; D -&gt; F -&gt; A -&gt; L -&gt; K -&gt; R</t>
+  </si>
+  <si>
+    <t>The shortest path from node H to node C is H -&gt; I -&gt; L -&gt; F -&gt; E -&gt; Q -&gt; R -&gt; J -&gt; D -&gt; C. The sequence of nodes is HIELFQRJD.</t>
+  </si>
+  <si>
+    <t>The shortest path from node K to node Q is K -&gt; P -&gt; B -&gt; H -&gt; A -&gt; C -&gt; G -&gt; N -&gt; O -&gt; I -&gt; L -&gt; F -&gt; E -&gt; Q -&gt; R -&gt; J -&gt; D -&gt; Q.</t>
+  </si>
+  <si>
+    <t>The shortest path from node C to node I is C -&gt; H -&gt; A -&gt; B -&gt; E -&gt; F -&gt; J -&gt; D -&gt; I. The sequence of nodes is C -&gt; H -&gt; A -&gt; B -&gt; E -&gt; F -&gt; J -&gt; D -&gt; I.</t>
+  </si>
+  <si>
+    <t>To find the shortest path from node S to node M, we can use Dijkstra's algorithm. Here's the sequence of nodes in the shortest path from node S to node M:
+S -&gt; T -&gt; R -&gt; M
+The shortest path has a length of 3.</t>
+  </si>
+  <si>
+    <t>The shortest path from node T to node F is T -&gt; S -&gt; R -&gt; D -&gt; E -&gt; B -&gt; H -&gt; A -&gt; C -&gt; G -&gt; N -&gt; O -&gt; I -&gt; L -&gt; F.</t>
+  </si>
+  <si>
+    <t>The shortest path from node M to node L is M -&gt; K -&gt; P -&gt; B -&gt; H -&gt; A -&gt; C -&gt; G -&gt; N -&gt; O -&gt; I -&gt; L -&gt; F -&gt; E -&gt; Q -&gt; R -&gt; J -&gt; D -&gt; L.</t>
+  </si>
+  <si>
+    <t>The shortest path from node F to node Q is F -&gt; P -&gt; B -&gt; H -&gt; A -&gt; C -&gt; G -&gt; N -&gt; O -&gt; I -&gt; L -&gt; F -&gt; E -&gt; Q -&gt; R -&gt; J -&gt; D -&gt; Q.</t>
+  </si>
+  <si>
+    <t>The shortest path from node D to node H is D -&gt; K -&gt; P -&gt; B -&gt; H -&gt; A -&gt; C -&gt; G -&gt; N -&gt; O -&gt; I -&gt; L -&gt; F -&gt; E -&gt; Q -&gt; R -&gt; J -&gt; D.</t>
+  </si>
+  <si>
+    <t>The shortest path from node K to node O is K -&gt; P -&gt; B -&gt; H -&gt; A -&gt; C -&gt; G -&gt; N -&gt; O -&gt; I -&gt; L -&gt; F -&gt; E -&gt; Q -&gt; R -&gt; J -&gt; D.</t>
+  </si>
+  <si>
+    <t>The shortest path from node J to node R is J -&gt; K -&gt; P -&gt; B -&gt; H -&gt; A -&gt; C -&gt; G -&gt; N -&gt; O -&gt; I -&gt; L -&gt; F -&gt; E -&gt; Q -&gt; R -&gt; J -&gt; D.</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1087,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1169,7 +1171,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1290,12 +1292,6 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
